--- a/results/cicddos2019-lstm-results.xlsx
+++ b/results/cicddos2019-lstm-results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>60-20-20</t>
+          <t>60-10-30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -527,10 +527,10 @@
         <v>27935</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9360300698049042</v>
+        <v>0.9366028279935564</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7765132566283142</v>
+        <v>0.7785142571285643</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -539,13 +539,13 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9177483199852711</v>
+        <v>0.9184246890833717</v>
       </c>
       <c r="M2" t="n">
-        <v>0.87419922562478</v>
+        <v>0.8754658603473736</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9571102844113764</v>
+        <v>0.9574779706595598</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>60-20-20</t>
+          <t>60-10-30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -572,13 +572,13 @@
         <v>60</v>
       </c>
       <c r="G3" t="n">
-        <v>28184</v>
+        <v>28183</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9473460119216577</v>
+        <v>0.9368058758826243</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8329581269698334</v>
+        <v>0.79952723998199</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -587,13 +587,13 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.928598922247883</v>
+        <v>0.9155123339658444</v>
       </c>
       <c r="M3" t="n">
-        <v>0.908867600098256</v>
+        <v>0.8885969850503533</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9629777467318631</v>
+        <v>0.9558929146338443</v>
       </c>
     </row>
     <row r="4">
@@ -602,7 +602,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>60-20-20</t>
+          <t>60-10-30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -623,10 +623,10 @@
         <v>27921</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9660470613516707</v>
+        <v>0.9474589019017944</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8860302957441692</v>
+        <v>0.8236354893003126</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -635,13 +635,13 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9538708578657973</v>
+        <v>0.930374940673944</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9395716471188169</v>
+        <v>0.903289603797218</v>
       </c>
       <c r="N4" t="n">
-        <v>0.976390895054042</v>
+        <v>0.9639318466796154</v>
       </c>
     </row>
     <row r="5">
@@ -650,7 +650,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>60-20-20</t>
+          <t>60-10-30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -668,13 +668,13 @@
         <v>180</v>
       </c>
       <c r="G5" t="n">
-        <v>27862</v>
+        <v>27863</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9291867059076879</v>
+        <v>0.9189247389010515</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7688612933458294</v>
+        <v>0.7353561387066542</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -683,13 +683,13 @@
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9073665430301893</v>
+        <v>0.8953488372093024</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8693290946420292</v>
+        <v>0.8474988186052792</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9514338461538461</v>
+        <v>0.9447852760736196</v>
       </c>
     </row>
     <row r="6">
@@ -698,7 +698,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>60-20-20</t>
+          <t>60-10-30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -719,10 +719,10 @@
         <v>27481</v>
       </c>
       <c r="H6" t="n">
-        <v>0.917033586841818</v>
+        <v>0.9468359957789018</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7044718081659106</v>
+        <v>0.8106286454957874</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -731,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8965798784359975</v>
+        <v>0.9311725632449239</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8266159695817491</v>
+        <v>0.8954112678072875</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9454701999426003</v>
+        <v>0.9643597687410046</v>
       </c>
     </row>
     <row r="7">
@@ -746,7 +746,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>60-20-20</t>
+          <t>60-10-30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -767,10 +767,10 @@
         <v>27615</v>
       </c>
       <c r="H7" t="n">
-        <v>0.926054680427304</v>
+        <v>0.9224334600760457</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7546557731587168</v>
+        <v>0.7426408746846089</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -779,13 +779,13 @@
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9042842411174651</v>
+        <v>0.9000653167864141</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8601752944398795</v>
+        <v>0.8523166023166023</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9497366218677693</v>
+        <v>0.9474046063939499</v>
       </c>
     </row>
     <row r="8">
@@ -794,16 +794,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>60-20-20</t>
+          <t>60-10-30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>dstip</t>
+          <t>srcip</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
         <v>300</v>
@@ -812,13 +812,13 @@
         <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>26967</v>
+        <v>28030</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9657358994326399</v>
+        <v>0.9838387442026401</v>
       </c>
       <c r="I8" t="n">
-        <v>0.781042654028436</v>
+        <v>0.9450842526366833</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -827,13 +827,13 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9609648937518482</v>
+        <v>0.9776119402985075</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8770622671633846</v>
+        <v>0.9717669055780618</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9800939290792365</v>
+        <v>0.9886792452830189</v>
       </c>
     </row>
     <row r="9">
@@ -842,16 +842,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>60-20-20</t>
+          <t>60-10-30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>dstip</t>
+          <t>srcip</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>600</v>
@@ -860,13 +860,13 @@
         <v>60</v>
       </c>
       <c r="G9" t="n">
-        <v>26940</v>
+        <v>28169</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9430586488492947</v>
+        <v>0.9821079910539955</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6645528099715723</v>
+        <v>0.9436934420735114</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -875,13 +875,13 @@
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9358185849964437</v>
+        <v>0.9744447824764223</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7984760903836049</v>
+        <v>0.9710311530060928</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9668453358692833</v>
+        <v>0.9870570107858243</v>
       </c>
     </row>
     <row r="10">
@@ -890,16 +890,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>60-20-20</t>
+          <t>60-10-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>dstip</t>
+          <t>srcip</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>1200</v>
@@ -908,13 +908,13 @@
         <v>120</v>
       </c>
       <c r="G10" t="n">
-        <v>26859</v>
+        <v>27902</v>
       </c>
       <c r="H10" t="n">
-        <v>0.964555642428981</v>
+        <v>0.9747688337753566</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7808471454880295</v>
+        <v>0.9162801760019027</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -923,13 +923,13 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9594323944262155</v>
+        <v>0.9651433381195227</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8769389865563599</v>
+        <v>0.956311282114931</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9792962463572702</v>
+        <v>0.982262534643487</v>
       </c>
     </row>
     <row r="11">
@@ -938,16 +938,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>60-20-20</t>
+          <t>60-10-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>dstip</t>
+          <t>srcip</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>1800</v>
@@ -956,13 +956,13 @@
         <v>180</v>
       </c>
       <c r="G11" t="n">
-        <v>26725</v>
+        <v>27829</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9476145930776426</v>
+        <v>0.9729059614071652</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6775679410409949</v>
+        <v>0.9095706404413528</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -971,13 +971,13 @@
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9411344237480553</v>
+        <v>0.9627562361076809</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8077979132344866</v>
+        <v>0.9526441401833941</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9696746523415501</v>
+        <v>0.9810247634386954</v>
       </c>
     </row>
     <row r="12">
@@ -986,16 +986,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>60-20-20</t>
+          <t>60-10-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>dstip</t>
+          <t>srcip</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>2400</v>
@@ -1004,13 +1004,13 @@
         <v>240</v>
       </c>
       <c r="G12" t="n">
-        <v>26547</v>
+        <v>27523</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9624439673032734</v>
+        <v>0.9627220869817971</v>
       </c>
       <c r="I12" t="n">
-        <v>0.750313047833709</v>
+        <v>0.8725465838509316</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9576663411320114</v>
+        <v>0.9499487779891702</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8573472599799685</v>
+        <v>0.9319357834682234</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9783754473484438</v>
+        <v>0.9743320324226958</v>
       </c>
     </row>
     <row r="13">
@@ -1034,16 +1034,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>60-20-20</t>
+          <t>60-10-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>dstip</t>
+          <t>srcip</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>3000</v>
@@ -1052,28 +1052,6364 @@
         <v>300</v>
       </c>
       <c r="G13" t="n">
+        <v>27571</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9098690653222589</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.6984589248877563</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.8860875544350217</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8224619561334572</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.9396038400777738</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" t="n">
+        <v>300</v>
+      </c>
+      <c r="F14" t="n">
+        <v>30</v>
+      </c>
+      <c r="G14" t="n">
+        <v>28109</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.989433989113807</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9643927586620309</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.9851981061549963</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.9818736649374428</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.9925438706600055</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>100</v>
+      </c>
+      <c r="E15" t="n">
+        <v>600</v>
+      </c>
+      <c r="F15" t="n">
+        <v>60</v>
+      </c>
+      <c r="G15" t="n">
+        <v>28180</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9562810503903477</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.8640926640926641</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.9394505332481446</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.9270919635459818</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.9687800922406365</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>100</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F16" t="n">
+        <v>120</v>
+      </c>
+      <c r="G16" t="n">
+        <v>27869</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9603502099106535</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8668032786885246</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.9465615630138311</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.9286498353457738</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.9725472659064371</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F17" t="n">
+        <v>180</v>
+      </c>
+      <c r="G17" t="n">
+        <v>27769</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9918614282113147</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9714970361962416</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.9887371673477524</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.9855424769703173</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.9943366912243772</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>100</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F18" t="n">
+        <v>240</v>
+      </c>
+      <c r="G18" t="n">
+        <v>27515</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8943848809740141</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6395435375837262</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.8700299655619661</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7801482826448782</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.9304984215057878</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>100</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>300</v>
+      </c>
+      <c r="G19" t="n">
+        <v>27409</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9622751650917581</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8709435846230654</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.9493906318829231</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.9310206804536357</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.9740383649693684</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>200</v>
+      </c>
+      <c r="E20" t="n">
+        <v>300</v>
+      </c>
+      <c r="F20" t="n">
+        <v>30</v>
+      </c>
+      <c r="G20" t="n">
+        <v>28212</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8955054586700695</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6711656441717792</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.8671772921829241</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.803230543318649</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.9288644370445442</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>200</v>
+      </c>
+      <c r="E21" t="n">
+        <v>600</v>
+      </c>
+      <c r="F21" t="n">
+        <v>60</v>
+      </c>
+      <c r="G21" t="n">
+        <v>28081</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8915993020191588</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.648620570241256</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.8644822366663699</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.786864584792046</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.9273161413562561</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>200</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F22" t="n">
+        <v>120</v>
+      </c>
+      <c r="G22" t="n">
+        <v>27989</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9236843045482154</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.7541719415352744</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.9003545437581638</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.859860910641648</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.9475648075412411</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>200</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F23" t="n">
+        <v>180</v>
+      </c>
+      <c r="G23" t="n">
+        <v>27869</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8439484732139654</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5022888532845045</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.814778534923339</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.6686981031461873</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.8979371523784938</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>200</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F24" t="n">
+        <v>240</v>
+      </c>
+      <c r="G24" t="n">
+        <v>27613</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9177561293593597</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.7200098631488102</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.8956965048454508</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.837215970181349</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.9449788007268323</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>200</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>300</v>
+      </c>
+      <c r="G25" t="n">
+        <v>27326</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9541828295396326</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8409350781349256</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.939537354517796</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.9135955831608005</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.9688262536726259</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E26" t="n">
+        <v>300</v>
+      </c>
+      <c r="F26" t="n">
+        <v>30</v>
+      </c>
+      <c r="G26" t="n">
+        <v>27935</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.9360300698049042</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.7765132566283142</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.9177483199852711</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.87419922562478</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.9571102844113764</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E27" t="n">
+        <v>600</v>
+      </c>
+      <c r="F27" t="n">
+        <v>60</v>
+      </c>
+      <c r="G27" t="n">
+        <v>28184</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9473460119216577</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8329581269698334</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.928598922247883</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.908867600098256</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.9629777467318631</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F28" t="n">
+        <v>120</v>
+      </c>
+      <c r="G28" t="n">
+        <v>27921</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9660470613516707</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8860302957441692</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.9538708578657973</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.9395716471188169</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.976390895054042</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F29" t="n">
+        <v>180</v>
+      </c>
+      <c r="G29" t="n">
+        <v>27862</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.9291867059076879</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.7688612933458294</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.9073665430301893</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8693290946420292</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.9514338461538461</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F30" t="n">
+        <v>240</v>
+      </c>
+      <c r="G30" t="n">
+        <v>27481</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.917033586841818</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7044718081659106</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.8965798784359975</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8266159695817491</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.9454701999426003</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F31" t="n">
+        <v>300</v>
+      </c>
+      <c r="G31" t="n">
+        <v>27615</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.926054680427304</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.7546557731587168</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.9042842411174651</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.8601752944398795</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.9497366218677693</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" t="n">
+        <v>300</v>
+      </c>
+      <c r="F32" t="n">
+        <v>30</v>
+      </c>
+      <c r="G32" t="n">
+        <v>28029</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.9843019729565807</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.9466602012365135</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.9782393669634025</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.9725993274380371</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.9889999999999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>50</v>
+      </c>
+      <c r="E33" t="n">
+        <v>600</v>
+      </c>
+      <c r="F33" t="n">
+        <v>60</v>
+      </c>
+      <c r="G33" t="n">
+        <v>28169</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9832794916397458</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.9473801809853648</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.9760780131037635</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.9729791750329873</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.987894209268255</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>50</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F34" t="n">
+        <v>120</v>
+      </c>
+      <c r="G34" t="n">
+        <v>27902</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.968353523044943</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.8949934593887502</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.9566647035728307</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.9445873862566678</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.9778524668288645</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>50</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F35" t="n">
+        <v>180</v>
+      </c>
+      <c r="G35" t="n">
+        <v>27829</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.979589636709907</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.9318781482369873</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.9716835335759509</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.9647380183759623</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.985638432364096</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>50</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F36" t="n">
+        <v>240</v>
+      </c>
+      <c r="G36" t="n">
+        <v>27523</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.9741307270283036</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.9115527950310559</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.9647262818924944</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.9537301793605406</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.9820464975540875</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F37" t="n">
+        <v>300</v>
+      </c>
+      <c r="G37" t="n">
+        <v>27571</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9487504987124152</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.8285402257007645</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.9318806344308923</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.9062313358550667</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.9647393506849998</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>100</v>
+      </c>
+      <c r="E38" t="n">
+        <v>300</v>
+      </c>
+      <c r="F38" t="n">
+        <v>30</v>
+      </c>
+      <c r="G38" t="n">
+        <v>28108</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9729970115269674</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.9090037165807457</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.9630225080385852</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.952333103058469</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.9811629811629812</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>100</v>
+      </c>
+      <c r="E39" t="n">
+        <v>600</v>
+      </c>
+      <c r="F39" t="n">
+        <v>60</v>
+      </c>
+      <c r="G39" t="n">
+        <v>28179</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.9872245289045034</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.9602868174296746</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.9815138132895143</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.979741136747327</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.990670674821188</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>100</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F40" t="n">
+        <v>120</v>
+      </c>
+      <c r="G40" t="n">
+        <v>27870</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.9006099748833871</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.6661041465766635</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.8760293591120659</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7995948487917812</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.9339186029867838</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>100</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F41" t="n">
+        <v>180</v>
+      </c>
+      <c r="G41" t="n">
+        <v>27769</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.9872159602434369</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.9552276453525035</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.9824213914335231</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.9771012062181513</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.9911327588360185</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F42" t="n">
+        <v>240</v>
+      </c>
+      <c r="G42" t="n">
+        <v>27515</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.9692894784662911</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.8951872984371124</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.9583702827864814</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.9446953334642321</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.9787426731402984</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>100</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F43" t="n">
+        <v>300</v>
+      </c>
+      <c r="G43" t="n">
+        <v>27409</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9142252544784559</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.7065651522715926</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.8918981055729263</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.8280552914503034</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.9428606148985296</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>200</v>
+      </c>
+      <c r="E44" t="n">
+        <v>300</v>
+      </c>
+      <c r="F44" t="n">
+        <v>30</v>
+      </c>
+      <c r="G44" t="n">
+        <v>28211</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8934812661727695</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6648075850529839</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.8649498898925891</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.7986599664991625</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.9275851266356604</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>200</v>
+      </c>
+      <c r="E45" t="n">
+        <v>600</v>
+      </c>
+      <c r="F45" t="n">
+        <v>60</v>
+      </c>
+      <c r="G45" t="n">
+        <v>28081</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8679178091948292</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.5718573242525684</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.8396246811086608</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.7276198869060733</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.9128217181807499</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>200</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F46" t="n">
+        <v>120</v>
+      </c>
+      <c r="G46" t="n">
+        <v>27989</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9242916860195076</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.7561284382552653</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.9010691442177506</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8611311357231798</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.9479604116014636</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>200</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F47" t="n">
+        <v>180</v>
+      </c>
+      <c r="G47" t="n">
+        <v>27869</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9403997272955614</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.8099107347219043</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.9201135051943055</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.8949731267783749</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.9583949102021391</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>200</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F48" t="n">
+        <v>240</v>
+      </c>
+      <c r="G48" t="n">
+        <v>27613</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9899684931010756</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.9658488472444828</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.985995247484706</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.9826277830040765</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.9929482446984548</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>200</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F49" t="n">
+        <v>300</v>
+      </c>
+      <c r="G49" t="n">
+        <v>27326</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.9386664714923516</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.7870664464489899</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.9206852491600019</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.8808474335276553</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.958704972157887</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20</v>
+      </c>
+      <c r="E50" t="n">
+        <v>300</v>
+      </c>
+      <c r="F50" t="n">
+        <v>30</v>
+      </c>
+      <c r="G50" t="n">
+        <v>41902</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9879719345138657</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.9369684842421211</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.9853530950305144</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.9674586776859504</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.9926225188828385</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20</v>
+      </c>
+      <c r="E51" t="n">
+        <v>600</v>
+      </c>
+      <c r="F51" t="n">
+        <v>60</v>
+      </c>
+      <c r="G51" t="n">
+        <v>42274</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9886455031461419</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.9459702836560108</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.9858281665190434</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.9722350763535401</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.9928635147190009</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F52" t="n">
+        <v>120</v>
+      </c>
+      <c r="G52" t="n">
+        <v>41881</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.9888254817220219</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.9437364751142101</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.9862478328582763</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.97105393369619</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.993076308548096</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F53" t="n">
+        <v>180</v>
+      </c>
+      <c r="G53" t="n">
+        <v>41793</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.9836814777594334</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.9201030927835051</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.9799051238987595</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.9583892617449665</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.9898505863444252</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F54" t="n">
+        <v>240</v>
+      </c>
+      <c r="G54" t="n">
+        <v>41221</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.9544406977026273</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.7565780946208684</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.9469251639158942</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.86142266824085</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.9727391493685585</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F55" t="n">
+        <v>300</v>
+      </c>
+      <c r="G55" t="n">
+        <v>41422</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.9531408430302738</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.7667908206175658</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.9446061643835616</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8680040802448147</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.971514110861621</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>50</v>
+      </c>
+      <c r="E56" t="n">
+        <v>300</v>
+      </c>
+      <c r="F56" t="n">
+        <v>30</v>
+      </c>
+      <c r="G56" t="n">
+        <v>42044</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.9851821900865759</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.924475694023518</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.981899006333895</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.9607559055118111</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.9908668435635436</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>50</v>
+      </c>
+      <c r="E57" t="n">
+        <v>600</v>
+      </c>
+      <c r="F57" t="n">
+        <v>60</v>
+      </c>
+      <c r="G57" t="n">
+        <v>42252</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.9871485373473445</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.9393363869958664</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.9839557971870937</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.9687193962785875</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.9919130240524239</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>50</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F58" t="n">
+        <v>120</v>
+      </c>
+      <c r="G58" t="n">
+        <v>41852</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.9814823664341011</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.9078368414793674</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.9773511017593079</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.9516923268715328</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.9885458388140879</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>50</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F59" t="n">
+        <v>180</v>
+      </c>
+      <c r="G59" t="n">
+        <v>41742</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.9811940012457477</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.9058527224754138</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.9770393986369885</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.9506009691020074</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.9883863713698164</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>50</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F60" t="n">
+        <v>240</v>
+      </c>
+      <c r="G60" t="n">
+        <v>41284</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.974760197655266</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.8705590062111801</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.9695997199206442</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.9308009031743923</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.984565249592653</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>50</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F61" t="n">
+        <v>300</v>
+      </c>
+      <c r="G61" t="n">
+        <v>41355</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.9720469108934833</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.8597257614367189</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.9662678727750219</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.9245726216886337</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.9828445921880565</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>100</v>
+      </c>
+      <c r="E62" t="n">
+        <v>300</v>
+      </c>
+      <c r="F62" t="n">
+        <v>30</v>
+      </c>
+      <c r="G62" t="n">
+        <v>42162</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.986504435273469</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.931782759860928</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.9834544925850538</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.9646868987773847</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.9916582369412559</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>100</v>
+      </c>
+      <c r="E63" t="n">
+        <v>600</v>
+      </c>
+      <c r="F63" t="n">
+        <v>60</v>
+      </c>
+      <c r="G63" t="n">
+        <v>42269</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.9836996380326007</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.9239933811362383</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.9796713185613548</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.9604953844389656</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.9897312845581769</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>100</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F64" t="n">
+        <v>120</v>
+      </c>
+      <c r="G64" t="n">
+        <v>41803</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.97658062818458</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.8819913211186113</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.9716116685031607</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.9372958432075833</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.985601458973718</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>100</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F65" t="n">
+        <v>180</v>
+      </c>
+      <c r="G65" t="n">
+        <v>41653</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.9891964564377116</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.9432463110102156</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.986832094574823</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.9707943925233644</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.9933724115585143</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>100</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F66" t="n">
+        <v>240</v>
+      </c>
+      <c r="G66" t="n">
+        <v>41271</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.9859223183349083</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.9279335152567602</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.9828055637762652</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.962619828861867</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.991328228779534</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>100</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F67" t="n">
+        <v>300</v>
+      </c>
+      <c r="G67" t="n">
+        <v>41112</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.974849192449893</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.8709435846230654</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.9697076228979903</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.9310206804536357</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.9846208763423269</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>200</v>
+      </c>
+      <c r="E68" t="n">
+        <v>300</v>
+      </c>
+      <c r="F68" t="n">
+        <v>30</v>
+      </c>
+      <c r="G68" t="n">
+        <v>42317</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.9909728950539972</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.9573898494143893</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.988676113120294</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.9782311374515614</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.9943058164147512</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>200</v>
+      </c>
+      <c r="E69" t="n">
+        <v>600</v>
+      </c>
+      <c r="F69" t="n">
+        <v>60</v>
+      </c>
+      <c r="G69" t="n">
+        <v>42121</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.9802711236675292</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.9040748008772942</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.9757648225378401</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.9496210973022127</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.987733774189263</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>200</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F70" t="n">
+        <v>120</v>
+      </c>
+      <c r="G70" t="n">
+        <v>41983</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.9869947359645571</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.9371619288755898</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.9838652482269503</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.9675617870722433</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.9918670122441684</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>200</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F71" t="n">
+        <v>180</v>
+      </c>
+      <c r="G71" t="n">
+        <v>41802</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.9930386105927946</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.9666971847104601</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.9912756708139709</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.9830666278731451</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.9956187235580181</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>200</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F72" t="n">
+        <v>240</v>
+      </c>
+      <c r="G72" t="n">
+        <v>41418</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.9799362595972766</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.8975465417334484</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.975657624934091</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.9460074069261256</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.9876788494328712</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>srcip</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>200</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F73" t="n">
+        <v>300</v>
+      </c>
+      <c r="G73" t="n">
+        <v>40989</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.913684159164654</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.5505018422055648</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.9034810126582279</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.7100950508030154</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.9492934330839568</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20</v>
+      </c>
+      <c r="E74" t="n">
+        <v>300</v>
+      </c>
+      <c r="F74" t="n">
+        <v>30</v>
+      </c>
+      <c r="G74" t="n">
+        <v>26967</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.9629176400786146</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.7630331753554502</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.9578894176106456</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.8655913978494624</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.9784918484105476</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20</v>
+      </c>
+      <c r="E75" t="n">
+        <v>600</v>
+      </c>
+      <c r="F75" t="n">
+        <v>60</v>
+      </c>
+      <c r="G75" t="n">
+        <v>26941</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.9571656582903382</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.7476492455718347</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.9509395459569765</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.8556056056056056</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.9748529091305296</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F76" t="n">
+        <v>120</v>
+      </c>
+      <c r="G76" t="n">
+        <v>26860</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.9635145197319435</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.7744014732965009</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.9582907728975145</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8728593668915413</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.9787012083804225</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F77" t="n">
+        <v>180</v>
+      </c>
+      <c r="G77" t="n">
+        <v>26725</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.9636669784845651</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.7763703362505757</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.9584225400359682</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.8741086477375858</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.9787699236941645</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F78" t="n">
+        <v>240</v>
+      </c>
+      <c r="G78" t="n">
+        <v>26547</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.9739330244472069</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.8266967192587027</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.9702314376666954</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.9051275020564847</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.9848908296943232</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F79" t="n">
+        <v>300</v>
+      </c>
+      <c r="G79" t="n">
         <v>26460</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H79" t="n">
+        <v>0.9606575963718821</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.7566619915848527</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.9551737501614779</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.8614770459081836</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.9770730095804427</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>50</v>
+      </c>
+      <c r="E80" t="n">
+        <v>300</v>
+      </c>
+      <c r="F80" t="n">
+        <v>30</v>
+      </c>
+      <c r="G80" t="n">
+        <v>27034</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.9927498705334024</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.9564056939501779</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.9913785519486232</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.9777171441564347</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.995670613182541</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>50</v>
+      </c>
+      <c r="E81" t="n">
+        <v>600</v>
+      </c>
+      <c r="F81" t="n">
+        <v>60</v>
+      </c>
+      <c r="G81" t="n">
+        <v>26966</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.9797893643847808</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.8817017581940525</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.9762050296891372</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.9371323105317799</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.9879592603230012</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>50</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F82" t="n">
+        <v>120</v>
+      </c>
+      <c r="G82" t="n">
+        <v>26858</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.9794102315883536</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.874232431203093</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.9759711479968715</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.932896493144036</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.987839472237493</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>50</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F83" t="n">
+        <v>180</v>
+      </c>
+      <c r="G83" t="n">
+        <v>26694</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.9770734996628456</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.8574091332712023</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.9734074910923786</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.9232313095835425</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.9865245728377664</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>50</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F84" t="n">
+        <v>240</v>
+      </c>
+      <c r="G84" t="n">
+        <v>26569</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.9642440438104558</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.7688001946945728</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.9594190516873131</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.8692900385250413</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.9792892958360584</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>50</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F85" t="n">
+        <v>300</v>
+      </c>
+      <c r="G85" t="n">
+        <v>26418</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.9652888182299947</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.7755201958384333</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.9605591397849462</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.873569557424514</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.9798828510628963</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>100</v>
+      </c>
+      <c r="E86" t="n">
+        <v>300</v>
+      </c>
+      <c r="F86" t="n">
+        <v>30</v>
+      </c>
+      <c r="G86" t="n">
+        <v>26998</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.980591154900363</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.8840707964601769</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.9772193722285019</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.9384687646782527</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.9884784520668426</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>100</v>
+      </c>
+      <c r="E87" t="n">
+        <v>600</v>
+      </c>
+      <c r="F87" t="n">
+        <v>60</v>
+      </c>
+      <c r="G87" t="n">
+        <v>26986</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.9826206180982732</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.9011174362218005</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.9793501232828461</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.9479871354108904</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.9895673451229007</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>100</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F88" t="n">
+        <v>120</v>
+      </c>
+      <c r="G88" t="n">
+        <v>26810</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.9064155165982842</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.412136832239925</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.8998443175921121</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.5837066533930646</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.9472821633433489</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>100</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F89" t="n">
+        <v>180</v>
+      </c>
+      <c r="G89" t="n">
+        <v>26621</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.9424514481048796</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.6151720673197689</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.9366208836670528</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.761741835147745</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.9672733487140048</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>100</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F90" t="n">
+        <v>240</v>
+      </c>
+      <c r="G90" t="n">
+        <v>26525</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.992497643732328</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.9503493013972056</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.9912396548688149</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.9745426634258668</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.9956005571153803</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>100</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F91" t="n">
+        <v>300</v>
+      </c>
+      <c r="G91" t="n">
+        <v>26394</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.9608623171933015</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.7414267834793492</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.9559149880505292</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.8515164582434959</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.977460670725055</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>200</v>
+      </c>
+      <c r="E92" t="n">
+        <v>300</v>
+      </c>
+      <c r="F92" t="n">
+        <v>30</v>
+      </c>
+      <c r="G92" t="n">
+        <v>26989</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.9929600948534588</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.9590428971761156</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.9915705412599822</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.979093309859155</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.9957674314992203</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>200</v>
+      </c>
+      <c r="E93" t="n">
+        <v>600</v>
+      </c>
+      <c r="F93" t="n">
+        <v>60</v>
+      </c>
+      <c r="G93" t="n">
+        <v>26939</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.9595382159694124</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.7584219858156028</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.953650550665476</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.8626165868414419</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.9762754657844332</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>200</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F94" t="n">
+        <v>120</v>
+      </c>
+      <c r="G94" t="n">
+        <v>26833</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.9749934781798532</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.8414086504372489</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.9711683066214067</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.9138749839558465</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.9853732970027248</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>200</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F95" t="n">
+        <v>180</v>
+      </c>
+      <c r="G95" t="n">
+        <v>26676</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.9953141400509822</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.9707670720299345</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.9944506104328524</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.9851667259997627</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.9972175848636617</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>200</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F96" t="n">
+        <v>240</v>
+      </c>
+      <c r="G96" t="n">
+        <v>26512</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.920526554013277</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.496294525460196</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.9137747585529546</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.6633647547531555</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.9549449374532235</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>200</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F97" t="n">
+        <v>300</v>
+      </c>
+      <c r="G97" t="n">
+        <v>26395</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.9693502557302519</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.8034021871202917</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.9649616700593356</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.8909850424471096</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.9821684410059732</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20</v>
+      </c>
+      <c r="E98" t="n">
+        <v>300</v>
+      </c>
+      <c r="F98" t="n">
+        <v>30</v>
+      </c>
+      <c r="G98" t="n">
+        <v>26967</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.9657358994326399</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.781042654028436</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.9609648937518482</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.8770622671633846</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.9800939290792365</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20</v>
+      </c>
+      <c r="E99" t="n">
+        <v>600</v>
+      </c>
+      <c r="F99" t="n">
+        <v>60</v>
+      </c>
+      <c r="G99" t="n">
+        <v>26940</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.9430586488492947</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.6645528099715723</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.9358185849964437</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7984760903836049</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.9668453358692833</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F100" t="n">
+        <v>120</v>
+      </c>
+      <c r="G100" t="n">
+        <v>26859</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.964555642428981</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.7808471454880295</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.9594323944262155</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.8769389865563599</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.9792962463572702</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F101" t="n">
+        <v>180</v>
+      </c>
+      <c r="G101" t="n">
+        <v>26725</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.9476145930776426</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.6775679410409949</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.9411344237480553</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8077979132344866</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.9696746523415501</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F102" t="n">
+        <v>240</v>
+      </c>
+      <c r="G102" t="n">
+        <v>26547</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.9624439673032734</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.750313047833709</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.9576663411320114</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.8573472599799685</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.9783754473484438</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F103" t="n">
+        <v>300</v>
+      </c>
+      <c r="G103" t="n">
+        <v>26460</v>
+      </c>
+      <c r="H103" t="n">
         <v>0.9465230536659108</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I103" t="n">
         <v>0.6692379616643291</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
         <v>0.9400347501801076</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M103" t="n">
         <v>0.8018484806049573</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N103" t="n">
         <v>0.969090631075384</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>50</v>
+      </c>
+      <c r="E104" t="n">
+        <v>300</v>
+      </c>
+      <c r="F104" t="n">
+        <v>30</v>
+      </c>
+      <c r="G104" t="n">
+        <v>27034</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.9924909373381667</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.9548487544483986</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.9910733916714305</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.9769029468653999</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.995516685439166</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>50</v>
+      </c>
+      <c r="E105" t="n">
+        <v>600</v>
+      </c>
+      <c r="F105" t="n">
+        <v>60</v>
+      </c>
+      <c r="G105" t="n">
+        <v>26966</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.9892828005636728</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.9372693726937269</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.9872394913458142</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.9676190476190476</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.9935787766347457</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>50</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F106" t="n">
+        <v>120</v>
+      </c>
+      <c r="G106" t="n">
+        <v>26858</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.9838037083922854</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.9010689106208779</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.9810010482180294</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.9479602823304224</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.9904094186123421</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>50</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F107" t="n">
+        <v>180</v>
+      </c>
+      <c r="G107" t="n">
+        <v>26694</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.9760994980145351</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.8513513513513513</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.9723090277777777</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.9197080291970803</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.9859601249944985</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>50</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F108" t="n">
+        <v>240</v>
+      </c>
+      <c r="G108" t="n">
+        <v>26569</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.9861116338590086</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.9101971282550498</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.9838363485040956</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.9529876417378009</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.9918523261719182</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>50</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F109" t="n">
+        <v>300</v>
+      </c>
+      <c r="G109" t="n">
+        <v>26418</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.9680520856991445</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.793390452876377</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.9635845881693058</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.8847938847938849</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.9814546253570644</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>100</v>
+      </c>
+      <c r="E110" t="n">
+        <v>300</v>
+      </c>
+      <c r="F110" t="n">
+        <v>30</v>
+      </c>
+      <c r="G110" t="n">
+        <v>26998</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.9834061782354249</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.9008849557522124</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.9804588676611707</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.9478584729981377</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.9901330279270549</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>100</v>
+      </c>
+      <c r="E111" t="n">
+        <v>600</v>
+      </c>
+      <c r="F111" t="n">
+        <v>60</v>
+      </c>
+      <c r="G111" t="n">
+        <v>26986</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.9407470540280145</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.6628716002530044</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.9329334787350054</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.7972613160897679</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.9653032440056417</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>100</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F112" t="n">
+        <v>120</v>
+      </c>
+      <c r="G112" t="n">
+        <v>26810</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.9705706825811264</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.8151358950328023</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.9661823325189662</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.8981541241771008</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.9828003400693218</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>100</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F113" t="n">
+        <v>180</v>
+      </c>
+      <c r="G113" t="n">
+        <v>26621</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.9356898689004921</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.5699572971615172</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.9296977660972404</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.7260800000000001</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.9635682669390535</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>100</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F114" t="n">
+        <v>240</v>
+      </c>
+      <c r="G114" t="n">
+        <v>26526</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.990047500565483</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.9341317365269461</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.9884119041348433</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.9659442724458205</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.9941721854304636</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>100</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F115" t="n">
+        <v>300</v>
+      </c>
+      <c r="G115" t="n">
+        <v>26394</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.9767750246268091</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.846558197747184</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.9733617243177473</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.916903890470381</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.9865010680231662</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>200</v>
+      </c>
+      <c r="E116" t="n">
+        <v>300</v>
+      </c>
+      <c r="F116" t="n">
+        <v>30</v>
+      </c>
+      <c r="G116" t="n">
+        <v>26989</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.9633183889732854</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.7865919379176547</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.9575835475578406</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.8805501930501931</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.9783322390019699</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>200</v>
+      </c>
+      <c r="E117" t="n">
+        <v>600</v>
+      </c>
+      <c r="F117" t="n">
+        <v>60</v>
+      </c>
+      <c r="G117" t="n">
+        <v>26939</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.9825160547904525</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.8956117021276596</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.9794305179491659</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.9449316029463346</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.9896083838940981</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>200</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F118" t="n">
+        <v>120</v>
+      </c>
+      <c r="G118" t="n">
+        <v>26833</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.9711176536354489</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.816828173008745</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.9668477563417034</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.8991804344998049</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.9831444790012831</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>200</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F119" t="n">
+        <v>180</v>
+      </c>
+      <c r="G119" t="n">
+        <v>26676</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.9693357324936273</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.8086997193638915</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.9647687139288483</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.8942332557538144</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.9820684817396642</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>200</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F120" t="n">
+        <v>240</v>
+      </c>
+      <c r="G120" t="n">
+        <v>26512</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.9706170790585396</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.8137700215156586</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.9662887311753505</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.8973243706339792</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.9828553821775206</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>200</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F121" t="n">
+        <v>300</v>
+      </c>
+      <c r="G121" t="n">
+        <v>26395</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.9569994317105512</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.724179829890644</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.9515267990604314</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.8400281888653981</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.9751613962140278</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20</v>
+      </c>
+      <c r="E122" t="n">
+        <v>300</v>
+      </c>
+      <c r="F122" t="n">
+        <v>30</v>
+      </c>
+      <c r="G122" t="n">
+        <v>40450</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.9709270704573547</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.7213270142180095</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.9685611933914345</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.8381057268722467</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.9840295507632136</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>20</v>
+      </c>
+      <c r="E123" t="n">
+        <v>600</v>
+      </c>
+      <c r="F123" t="n">
+        <v>60</v>
+      </c>
+      <c r="G123" t="n">
+        <v>40410</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.9749319475377382</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.7784823966761426</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.9725101763907734</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.8754457149883192</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.9860635326812223</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>20</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F124" t="n">
+        <v>120</v>
+      </c>
+      <c r="G124" t="n">
+        <v>40289</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.9916106133187719</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.9221915285451197</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.9906843425295593</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.9595209580838323</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.9953203743700504</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>20</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F125" t="n">
+        <v>180</v>
+      </c>
+      <c r="G125" t="n">
+        <v>40087</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.9658492778207399</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.6847075080608015</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.9631136498356415</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.8128503075871497</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.9812102828751423</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>20</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F126" t="n">
+        <v>240</v>
+      </c>
+      <c r="G126" t="n">
+        <v>39819</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.9774730656219393</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.7753568745304282</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.9755738910219753</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.8734659331358443</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.9876359426043089</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>20</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F127" t="n">
+        <v>300</v>
+      </c>
+      <c r="G127" t="n">
+        <v>39690</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.9708994708994709</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.7300140252454418</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.9684141439002379</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.8439400081070125</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.983953653148835</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>50</v>
+      </c>
+      <c r="E128" t="n">
+        <v>300</v>
+      </c>
+      <c r="F128" t="n">
+        <v>30</v>
+      </c>
+      <c r="G128" t="n">
+        <v>40550</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.9933415536374846</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.9399466192170819</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.9925668979187314</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.9690437972941985</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.9962695846804278</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>50</v>
+      </c>
+      <c r="E129" t="n">
+        <v>600</v>
+      </c>
+      <c r="F129" t="n">
+        <v>60</v>
+      </c>
+      <c r="G129" t="n">
+        <v>40448</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.9872181566455697</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.8877794660299544</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.9857802959458716</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.9405542140968151</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.9928392360004986</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>50</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F130" t="n">
+        <v>120</v>
+      </c>
+      <c r="G130" t="n">
+        <v>40286</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.9910638931638782</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.9181259949965885</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.9900686915501117</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.9573156272231443</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.9950095650004158</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>50</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F131" t="n">
+        <v>180</v>
+      </c>
+      <c r="G131" t="n">
+        <v>40041</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.9898104442945981</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.9049394221808015</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.988715877976602</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.9500978473581213</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.9943259255138652</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>50</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F132" t="n">
+        <v>240</v>
+      </c>
+      <c r="G132" t="n">
+        <v>39852</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.9914182475158085</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.9167680700900462</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.990522377719274</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.9565769426104621</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.9952386256056134</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>50</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F133" t="n">
+        <v>300</v>
+      </c>
+      <c r="G133" t="n">
+        <v>39626</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.9796598193105537</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.8026927784577723</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.9778248548711035</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.8905486148832156</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.9887881148453149</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>100</v>
+      </c>
+      <c r="E134" t="n">
+        <v>300</v>
+      </c>
+      <c r="F134" t="n">
+        <v>30</v>
+      </c>
+      <c r="G134" t="n">
+        <v>40497</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.9886411339111539</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.8982300884955752</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.9873754699892966</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.9463869463869463</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.9936476371972272</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>100</v>
+      </c>
+      <c r="E135" t="n">
+        <v>600</v>
+      </c>
+      <c r="F135" t="n">
+        <v>60</v>
+      </c>
+      <c r="G135" t="n">
+        <v>40479</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.9860915536450999</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.8812987560615644</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.9844899308520896</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.9369046284881766</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.9921843548275144</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>100</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F136" t="n">
+        <v>120</v>
+      </c>
+      <c r="G136" t="n">
+        <v>40215</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.9946288698246922</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.9493908153701968</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.9940270442164644</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.9740384615384614</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.9970045763417003</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>100</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F137" t="n">
+        <v>180</v>
+      </c>
+      <c r="G137" t="n">
+        <v>39930</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.9875281743050338</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.8749058025621703</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.9863363239772821</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.9332797427652734</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.9931211669152993</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>100</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F138" t="n">
+        <v>240</v>
+      </c>
+      <c r="G138" t="n">
+        <v>39787</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.9854475079799935</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.8555389221556886</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.9840750316299026</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.9221460266236385</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.9919736057778948</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>100</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F139" t="n">
+        <v>300</v>
+      </c>
+      <c r="G139" t="n">
+        <v>39590</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.9739075524122253</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.7414267834793492</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.9717975319427761</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.8515164582434959</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.9856970771084004</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>200</v>
+      </c>
+      <c r="E140" t="n">
+        <v>300</v>
+      </c>
+      <c r="F140" t="n">
+        <v>30</v>
+      </c>
+      <c r="G140" t="n">
+        <v>40483</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.9904157300595312</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.9163612847596465</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.9892912342680503</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.956355455568054</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.9946167933847605</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>200</v>
+      </c>
+      <c r="E141" t="n">
+        <v>600</v>
+      </c>
+      <c r="F141" t="n">
+        <v>60</v>
+      </c>
+      <c r="G141" t="n">
+        <v>40408</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.9959908928924965</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.964095744680851</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.9955072383382328</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.981719702098849</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.9977485615810101</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>200</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F142" t="n">
+        <v>120</v>
+      </c>
+      <c r="G142" t="n">
+        <v>40248</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.9894653150467104</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.8997872843299456</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.988364753985895</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.9472505598407563</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.9941483342074029</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>200</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F143" t="n">
+        <v>180</v>
+      </c>
+      <c r="G143" t="n">
+        <v>40014</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.9797820762733044</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.8108044901777361</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.9778641201740225</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0.8955185328683972</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.988808189804247</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>200</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F144" t="n">
+        <v>240</v>
+      </c>
+      <c r="G144" t="n">
+        <v>39768</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.9899416616374975</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.904374850585704</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.9888842573294429</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0.9497865930203364</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.9944110660891435</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>dstip</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>200</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F145" t="n">
+        <v>300</v>
+      </c>
+      <c r="G145" t="n">
+        <v>39591</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.9437245838700715</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.4585662211421628</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.9409081264587311</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.6287904031989338</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.9695545230937415</v>
       </c>
     </row>
   </sheetData>
